--- a/Assets/Xls/Levels.xlsx
+++ b/Assets/Xls/Levels.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485"/>
@@ -13,12 +13,12 @@
     <sheet name="5" sheetId="5" r:id="rId4"/>
     <sheet name="Abilities" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -166,13 +166,19 @@
   <si>
     <t>KO</t>
   </si>
+  <si>
+    <t>Maunik</t>
+  </si>
+  <si>
+    <t>EvenNumbers,OddNumbers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -255,7 +261,6 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -264,14 +269,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -576,7 +585,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -593,46 +602,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -640,37 +649,37 @@
       <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11">
         <v>3</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>3</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>10</v>
       </c>
       <c r="G2" s="11">
         <v>30</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>5</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="30">
         <v>40</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <v>0</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="28">
         <v>0</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
@@ -682,37 +691,37 @@
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="11">
         <v>3</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>3</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>10</v>
       </c>
       <c r="G3" s="11">
         <v>30</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>5</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="30">
         <v>90</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="26">
         <v>0</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="28">
         <v>0</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <v>0</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -724,37 +733,37 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="11">
         <v>3</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>3</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>10</v>
       </c>
       <c r="G4" s="11">
         <v>30</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>5</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="30">
         <v>120</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <v>0</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>0</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>0</v>
       </c>
       <c r="M4" s="8" t="s">
@@ -766,37 +775,37 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>10</v>
       </c>
       <c r="G5" s="11">
         <v>30</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>5</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="30">
         <v>100</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <v>0</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="28">
         <v>0</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -808,37 +817,37 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="11">
         <v>3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>3</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>10</v>
       </c>
       <c r="G6" s="11">
         <v>30</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>4</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="30">
         <v>70</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <v>0</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="28">
         <v>0</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>0</v>
       </c>
       <c r="M6" s="9" t="s">
@@ -851,37 +860,37 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>4</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>10</v>
       </c>
       <c r="G7" s="11">
         <v>45</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>4</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="30">
         <v>200</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>2</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <v>0</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>0</v>
       </c>
       <c r="M7" s="9" t="s">
@@ -897,37 +906,37 @@
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>4</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>10</v>
       </c>
       <c r="G8" s="11">
         <v>45</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>3</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="31">
         <v>170</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <v>2</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="28">
         <v>0</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>0</v>
       </c>
       <c r="M8" s="9" t="s">
@@ -939,43 +948,43 @@
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>4</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>10</v>
       </c>
       <c r="G9" s="11">
         <v>60</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="32">
         <v>300</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>1.5</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="28">
         <v>0</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>0</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -984,121 +993,121 @@
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>4</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>10</v>
       </c>
       <c r="G10" s="11">
         <v>60</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>3</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="31">
         <v>400</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>1.5</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <v>0</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>0</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="22"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="11">
         <v>3</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>4</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>10</v>
       </c>
       <c r="G11" s="11">
         <v>60</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>2</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="31">
         <v>300</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>1</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="28">
         <v>0</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>0</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="22"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>5</v>
       </c>
       <c r="E12" s="13">
         <v>1</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>13</v>
       </c>
       <c r="G12" s="12">
         <v>60</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>3</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="32">
         <v>520</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <v>2</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="28">
         <v>0</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="21">
         <v>0</v>
       </c>
       <c r="M12" s="9" t="s">
@@ -1124,25 +1133,25 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>13</v>
       </c>
       <c r="G13" s="12">
         <v>75</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>2</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="32">
         <v>356</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="23">
         <v>2</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="29">
         <v>2</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <v>0</v>
       </c>
       <c r="M13" s="9" t="s">
@@ -1165,25 +1174,25 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>15</v>
       </c>
       <c r="G14" s="12">
         <v>90</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="33">
         <v>0</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <v>2</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <v>0</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="17">
         <v>0</v>
       </c>
       <c r="M14" s="9" t="s">
@@ -1191,129 +1200,168 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="H15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="12">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17">
+        <v>17</v>
+      </c>
+      <c r="G15" s="12">
+        <v>120</v>
+      </c>
+      <c r="H15" s="24">
+        <v>2</v>
+      </c>
+      <c r="I15" s="32">
+        <v>1500</v>
+      </c>
+      <c r="J15" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="K15" s="24">
+        <v>4</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="H16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="H17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="H18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="H19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="H20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="H21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="H22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="H23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="H24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="H25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="H25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="H26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="H26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="H27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="H27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="H28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="H28" s="24"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="H29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="H29" s="24"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="H30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="H30" s="24"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="2"/>
@@ -5331,7 +5379,7 @@
       </c>
       <c r="F2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5349,7 +5397,7 @@
       </c>
       <c r="F3">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5358,7 +5406,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5367,7 +5415,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F5">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -5376,7 +5424,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F6">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -5385,7 +5433,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F7">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -5394,7 +5442,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F8">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -5403,7 +5451,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F9">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5412,7 +5460,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F10">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -5421,7 +5469,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F11">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -5430,7 +5478,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F12">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -5439,7 +5487,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F13">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -5448,7 +5496,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F14">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5457,7 +5505,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F15">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -5466,7 +5514,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F16">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -5475,7 +5523,7 @@
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F17">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -5484,7 +5532,7 @@
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F18">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>7</v>
@@ -5493,7 +5541,7 @@
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F19">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5544,7 +5592,7 @@
       </c>
       <c r="F2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5562,7 +5610,7 @@
       </c>
       <c r="F3">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5571,7 +5619,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5580,7 +5628,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F5">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -5589,7 +5637,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F6">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -5598,7 +5646,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F7">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -5607,7 +5655,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F8">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -5616,7 +5664,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F9">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5634,7 +5682,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F11">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -5643,7 +5691,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F12">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -5652,7 +5700,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F13">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -5661,7 +5709,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F14">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5670,7 +5718,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F15">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -5679,7 +5727,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F16">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -5688,7 +5736,7 @@
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F17">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -5697,7 +5745,7 @@
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F18">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>7</v>
@@ -5706,7 +5754,7 @@
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F19">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(Levels!$E$2,Levels!$F$2)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5736,31 +5784,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
